--- a/biology/Botanique/Flore_des_Pyrénées-Orientales/Flore_des_Pyrénées-Orientales.xlsx
+++ b/biology/Botanique/Flore_des_Pyrénées-Orientales/Flore_des_Pyrénées-Orientales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_des_Pyr%C3%A9n%C3%A9es-Orientales</t>
+          <t>Flore_des_Pyrénées-Orientales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore des Pyrénées-Orientales est l'ensemble des espèces de plantes présentes dans le département des Pyrénées-Orientales, dans la région Occitanie, dans le sud de la France. Elle comprend plus de 2 700 espèces, réparties depuis le littoral méditerranéen jusqu'au relief des Pyrénées à presque 3 000 m d'altitude[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore des Pyrénées-Orientales est l'ensemble des espèces de plantes présentes dans le département des Pyrénées-Orientales, dans la région Occitanie, dans le sud de la France. Elle comprend plus de 2 700 espèces, réparties depuis le littoral méditerranéen jusqu'au relief des Pyrénées à presque 3 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_des_Pyr%C3%A9n%C3%A9es-Orientales</t>
+          <t>Flore_des_Pyrénées-Orientales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le département des Pyrénées-Orientales comprend six écosystèmes différents[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le département des Pyrénées-Orientales comprend six écosystèmes différents :
 Le littoral méditerranéen ;
 Les plaines et basses collines, avec notamment du chêne vert et parfois du chêne-liège ;
 L'étage collinéen, avec du chêne rouvre et du chataignier ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_des_Pyr%C3%A9n%C3%A9es-Orientales</t>
+          <t>Flore_des_Pyrénées-Orientales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Espèces endémiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces ne sont présentes que dans le département des Pyrénées-Orientales.
 La Dauphinelle des montagnes n'existe que dans la vallée d'Eyne.
-Une espèce de Myosotis, le Myosotis ruscinonensis (ou Myosotis du Roussillon) était endémique des sables herbeux sur le littoral entre Argelès-sur-Mer  et Collioure[1]. Elle disparait à l'état naturel au cours du XXe siècle[2].
+Une espèce de Myosotis, le Myosotis ruscinonensis (ou Myosotis du Roussillon) était endémique des sables herbeux sur le littoral entre Argelès-sur-Mer  et Collioure. Elle disparait à l'état naturel au cours du XXe siècle.
 </t>
         </is>
       </c>
